--- a/natmiOut/OldD7/LR-pairs_lrc2p/Bmp4-Bmpr1b.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Bmp4-Bmpr1b.xlsx
@@ -528,52 +528,52 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.17947662576616</v>
+        <v>8.351570000000001</v>
       </c>
       <c r="H2">
-        <v>8.17947662576616</v>
+        <v>25.05471</v>
       </c>
       <c r="I2">
-        <v>0.3914697511322308</v>
+        <v>0.3629556103554933</v>
       </c>
       <c r="J2">
-        <v>0.3914697511322308</v>
+        <v>0.3629556103554933</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.62074290559161</v>
+        <v>1.707786666666667</v>
       </c>
       <c r="N2">
-        <v>1.62074290559161</v>
+        <v>5.12336</v>
       </c>
       <c r="O2">
-        <v>0.8818251949691625</v>
+        <v>0.8764025646701329</v>
       </c>
       <c r="P2">
-        <v>0.8818251949691625</v>
+        <v>0.8764025646701328</v>
       </c>
       <c r="Q2">
-        <v>13.25682871266291</v>
+        <v>14.26269989173333</v>
       </c>
       <c r="R2">
-        <v>13.25682871266291</v>
+        <v>128.3642990256</v>
       </c>
       <c r="S2">
-        <v>0.345207889616709</v>
+        <v>0.3180952277769678</v>
       </c>
       <c r="T2">
-        <v>0.345207889616709</v>
+        <v>0.3180952277769677</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.17947662576616</v>
+        <v>8.351570000000001</v>
       </c>
       <c r="H3">
-        <v>8.17947662576616</v>
+        <v>25.05471</v>
       </c>
       <c r="I3">
-        <v>0.3914697511322308</v>
+        <v>0.3629556103554933</v>
       </c>
       <c r="J3">
-        <v>0.3914697511322308</v>
+        <v>0.3629556103554933</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.217198349475714</v>
+        <v>0.240846</v>
       </c>
       <c r="N3">
-        <v>0.217198349475714</v>
+        <v>0.7225379999999999</v>
       </c>
       <c r="O3">
-        <v>0.1181748050308376</v>
+        <v>0.1235974353298672</v>
       </c>
       <c r="P3">
-        <v>0.1181748050308376</v>
+        <v>0.1235974353298672</v>
       </c>
       <c r="Q3">
-        <v>1.776568822691592</v>
+        <v>2.01144222822</v>
       </c>
       <c r="R3">
-        <v>1.776568822691592</v>
+        <v>18.10298005398</v>
       </c>
       <c r="S3">
-        <v>0.0462618615155219</v>
+        <v>0.04486038257852556</v>
       </c>
       <c r="T3">
-        <v>0.0462618615155219</v>
+        <v>0.04486038257852556</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.9245502926553</v>
+        <v>11.216696</v>
       </c>
       <c r="H4">
-        <v>10.9245502926553</v>
+        <v>33.650088</v>
       </c>
       <c r="I4">
-        <v>0.522848976770164</v>
+        <v>0.4874727437897329</v>
       </c>
       <c r="J4">
-        <v>0.522848976770164</v>
+        <v>0.487472743789733</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.62074290559161</v>
+        <v>1.707786666666667</v>
       </c>
       <c r="N4">
-        <v>1.62074290559161</v>
+        <v>5.12336</v>
       </c>
       <c r="O4">
-        <v>0.8818251949691625</v>
+        <v>0.8764025646701329</v>
       </c>
       <c r="P4">
-        <v>0.8818251949691625</v>
+        <v>0.8764025646701328</v>
       </c>
       <c r="Q4">
-        <v>17.70588738359983</v>
+        <v>19.15572387285333</v>
       </c>
       <c r="R4">
-        <v>17.70588738359983</v>
+        <v>172.40151485568</v>
       </c>
       <c r="S4">
-        <v>0.4610614008797769</v>
+        <v>0.4272223628641085</v>
       </c>
       <c r="T4">
-        <v>0.4610614008797769</v>
+        <v>0.4272223628641085</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.9245502926553</v>
+        <v>11.216696</v>
       </c>
       <c r="H5">
-        <v>10.9245502926553</v>
+        <v>33.650088</v>
       </c>
       <c r="I5">
-        <v>0.522848976770164</v>
+        <v>0.4874727437897329</v>
       </c>
       <c r="J5">
-        <v>0.522848976770164</v>
+        <v>0.487472743789733</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.217198349475714</v>
+        <v>0.240846</v>
       </c>
       <c r="N5">
-        <v>0.217198349475714</v>
+        <v>0.7225379999999999</v>
       </c>
       <c r="O5">
-        <v>0.1181748050308376</v>
+        <v>0.1235974353298672</v>
       </c>
       <c r="P5">
-        <v>0.1181748050308376</v>
+        <v>0.1235974353298672</v>
       </c>
       <c r="Q5">
-        <v>2.37279429232916</v>
+        <v>2.701496364815999</v>
       </c>
       <c r="R5">
-        <v>2.37279429232916</v>
+        <v>24.31346728334399</v>
       </c>
       <c r="S5">
-        <v>0.06178757589038707</v>
+        <v>0.06025038092562444</v>
       </c>
       <c r="T5">
-        <v>0.06178757589038707</v>
+        <v>0.06025038092562444</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.79024805968098</v>
+        <v>3.441627666666667</v>
       </c>
       <c r="H6">
-        <v>1.79024805968098</v>
+        <v>10.324883</v>
       </c>
       <c r="I6">
-        <v>0.08568127209760523</v>
+        <v>0.1495716458547737</v>
       </c>
       <c r="J6">
-        <v>0.08568127209760523</v>
+        <v>0.1495716458547737</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.62074290559161</v>
+        <v>1.707786666666667</v>
       </c>
       <c r="N6">
-        <v>1.62074290559161</v>
+        <v>5.12336</v>
       </c>
       <c r="O6">
-        <v>0.8818251949691625</v>
+        <v>0.8764025646701329</v>
       </c>
       <c r="P6">
-        <v>0.8818251949691625</v>
+        <v>0.8764025646701328</v>
       </c>
       <c r="Q6">
-        <v>2.901531841977094</v>
+        <v>5.877565840764444</v>
       </c>
       <c r="R6">
-        <v>2.901531841977094</v>
+        <v>52.89809256688</v>
       </c>
       <c r="S6">
-        <v>0.0755559044726766</v>
+        <v>0.1310849740290565</v>
       </c>
       <c r="T6">
-        <v>0.0755559044726766</v>
+        <v>0.1310849740290565</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.79024805968098</v>
+        <v>3.441627666666667</v>
       </c>
       <c r="H7">
-        <v>1.79024805968098</v>
+        <v>10.324883</v>
       </c>
       <c r="I7">
-        <v>0.08568127209760523</v>
+        <v>0.1495716458547737</v>
       </c>
       <c r="J7">
-        <v>0.08568127209760523</v>
+        <v>0.1495716458547737</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.217198349475714</v>
+        <v>0.240846</v>
       </c>
       <c r="N7">
-        <v>0.217198349475714</v>
+        <v>0.7225379999999999</v>
       </c>
       <c r="O7">
-        <v>0.1181748050308376</v>
+        <v>0.1235974353298672</v>
       </c>
       <c r="P7">
-        <v>0.1181748050308376</v>
+        <v>0.1235974353298672</v>
       </c>
       <c r="Q7">
-        <v>0.3888389237148084</v>
+        <v>0.828902257006</v>
       </c>
       <c r="R7">
-        <v>0.3888389237148084</v>
+        <v>7.460120313053999</v>
       </c>
       <c r="S7">
-        <v>0.01012536762492864</v>
+        <v>0.01848667182571719</v>
       </c>
       <c r="T7">
-        <v>0.01012536762492864</v>
+        <v>0.01848667182571719</v>
       </c>
     </row>
   </sheetData>
